--- a/NE_nais_einheiten_unique_mf.xlsx
+++ b/NE_nais_einheiten_unique_mf.xlsx
@@ -5,22 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3D5FFD-D907-465C-9285-DEA9F2D998F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722E3453-AC74-4FEC-8F42-AEE783A2E43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5520" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="export" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">export!$A$1:$F$49</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="95">
   <si>
     <t>code_neuch</t>
   </si>
@@ -299,6 +316,12 @@
   </si>
   <si>
     <t>om hm sa</t>
+  </si>
+  <si>
+    <t>nais</t>
+  </si>
+  <si>
+    <t>hs</t>
   </si>
 </sst>
 </file>
@@ -666,21 +689,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -700,7 +723,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>487</v>
       </c>
@@ -714,7 +737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -734,7 +757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38</v>
       </c>
@@ -754,7 +777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -774,7 +797,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>149</v>
       </c>
@@ -794,7 +817,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1072</v>
       </c>
@@ -814,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6969</v>
       </c>
@@ -834,7 +857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>193</v>
       </c>
@@ -854,7 +877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>35</v>
       </c>
@@ -874,7 +897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>152</v>
       </c>
@@ -894,7 +917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>301</v>
       </c>
@@ -914,7 +937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -934,7 +957,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -954,7 +977,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -974,7 +997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>89</v>
       </c>
@@ -994,7 +1017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1014,7 +1037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1034,7 +1057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1054,7 +1077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>146</v>
       </c>
@@ -1074,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>175</v>
       </c>
@@ -1094,7 +1117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1114,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>12</v>
       </c>
@@ -1134,7 +1157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39</v>
       </c>
@@ -1154,7 +1177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46</v>
       </c>
@@ -1174,7 +1197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>58</v>
       </c>
@@ -1194,7 +1217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>68</v>
       </c>
@@ -1214,7 +1237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>297</v>
       </c>
@@ -1234,7 +1257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>452</v>
       </c>
@@ -1254,7 +1277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1274,7 +1297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -1294,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>15</v>
       </c>
@@ -1314,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43</v>
       </c>
@@ -1334,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -1354,7 +1377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1374,7 +1397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -1394,7 +1417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1343</v>
       </c>
@@ -1414,7 +1437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>76</v>
       </c>
@@ -1434,7 +1457,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8993</v>
       </c>
@@ -1454,7 +1477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>55</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>408</v>
       </c>
@@ -1494,7 +1517,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>333</v>
       </c>
@@ -1514,7 +1537,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>392</v>
       </c>
@@ -1534,7 +1557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>23</v>
       </c>
@@ -1554,7 +1577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>951</v>
       </c>
@@ -1574,7 +1597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>535</v>
       </c>
@@ -1594,7 +1617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>91</v>
       </c>
@@ -1614,7 +1637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1360</v>
       </c>
@@ -1634,7 +1657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>148</v>
       </c>
@@ -1654,127 +1677,127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>86</v>
       </c>
@@ -1785,4 +1808,1002 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD81921-F955-47DB-B205-3C954122C12A}">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>487</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>149</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6969</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>193</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>152</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>301</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>146</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>175</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>68</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>297</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>452</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1343</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>8993</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>408</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>333</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>392</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>951</v>
+      </c>
+      <c r="B45">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>535</v>
+      </c>
+      <c r="B46">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>91</v>
+      </c>
+      <c r="B47">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1360</v>
+      </c>
+      <c r="B48">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>148</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F49" xr:uid="{6DD81921-F955-47DB-B205-3C954122C12A}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>